--- a/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/210/stop-words-topk-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,46 +40,55 @@
     <t>name</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>illegal</t>
+  </si>
+  <si>
     <t>evil</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>illegal</t>
-  </si>
-  <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>dangerous</t>
   </si>
   <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>sorry</t>
-  </si>
-  <si>
     <t>addicted</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
     <t>disturbing</t>
   </si>
   <si>
-    <t>weird</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>shocking</t>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>seriously</t>
@@ -88,33 +97,15 @@
     <t>hate</t>
   </si>
   <si>
-    <t>fuck</t>
+    <t>dark</t>
   </si>
   <si>
     <t>bad</t>
   </si>
   <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -130,61 +121,55 @@
     <t>interesting</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>new</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>right</t>
+    <t>really</t>
   </si>
   <si>
     <t>social</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>documentary</t>
   </si>
   <si>
-    <t>twitter</t>
+    <t>netflix</t>
+  </si>
+  <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>watch</t>
   </si>
   <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>netflix</t>
   </si>
   <si>
     <t>…</t>
@@ -551,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,10 +608,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,16 +626,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -662,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -673,10 +658,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K4">
         <v>0.9090909090909091</v>
@@ -720,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9326923076923077</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -738,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5">
+        <v>0.86</v>
+      </c>
+      <c r="L5">
+        <v>43</v>
+      </c>
+      <c r="M5">
+        <v>43</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>7</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5">
-        <v>0.9</v>
-      </c>
-      <c r="L5">
-        <v>45</v>
-      </c>
-      <c r="M5">
-        <v>45</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,10 +758,10 @@
         <v>0.9090909090909091</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -788,10 +773,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K6">
         <v>0.8</v>
@@ -820,13 +805,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8939393939393939</v>
+        <v>0.9</v>
       </c>
       <c r="C7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -838,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.7368421052631579</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -862,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -870,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8823529411764706</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>92</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -888,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K8">
-        <v>0.6842105263157895</v>
+        <v>0.6266666666666667</v>
       </c>
       <c r="L8">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -912,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -920,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C9">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D9">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -938,19 +923,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>0.6266666666666667</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="L9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="M9">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -962,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -970,13 +955,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -988,19 +973,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.5862068965517241</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1020,13 +1005,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8181818181818182</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K11">
         <v>0.55</v>
@@ -1070,13 +1055,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1088,19 +1073,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K12">
-        <v>0.3939393939393939</v>
+        <v>0.5</v>
       </c>
       <c r="L12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M12">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1112,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1123,10 +1108,10 @@
         <v>0.75</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1138,19 +1123,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>0.3703703703703703</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1162,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1170,13 +1155,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="C14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1188,19 +1173,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K14">
-        <v>0.3541666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1212,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1223,10 +1208,10 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="C15">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="D15">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1238,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>0.2682926829268293</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1262,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1270,38 +1255,38 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6428571428571429</v>
+        <v>0.572463768115942</v>
       </c>
       <c r="C16">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>79</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>59</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16">
+        <v>0.1475409836065574</v>
+      </c>
+      <c r="L16">
         <v>9</v>
       </c>
-      <c r="D16">
+      <c r="M16">
         <v>9</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>5</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16">
-        <v>0.1864406779661017</v>
-      </c>
-      <c r="L16">
-        <v>11</v>
-      </c>
-      <c r="M16">
-        <v>11</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1312,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1320,13 +1305,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5357142857142857</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1338,19 +1323,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K17">
-        <v>0.180327868852459</v>
+        <v>0.1263157894736842</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1362,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1370,13 +1355,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1388,19 +1373,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K18">
-        <v>0.1666666666666667</v>
+        <v>0.1238615664845173</v>
       </c>
       <c r="L18">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="M18">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1412,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>962</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1420,13 +1405,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1438,19 +1423,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K19">
-        <v>0.1438979963570128</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L19">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="M19">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1462,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>940</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1470,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1488,19 +1473,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K20">
-        <v>0.1157894736842105</v>
+        <v>0.08833922261484099</v>
       </c>
       <c r="L20">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1512,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>84</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1520,13 +1505,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4615384615384616</v>
+        <v>0.45</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1538,19 +1523,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="K21">
-        <v>0.1058823529411765</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L21">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1562,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>76</v>
+        <v>509</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1570,13 +1555,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4468085106382979</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D22">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1588,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K22">
-        <v>0.07420494699646643</v>
+        <v>0.05396825396825397</v>
       </c>
       <c r="L22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M22">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1612,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>262</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1620,13 +1605,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4166666666666667</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1638,19 +1623,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K23">
-        <v>0.072992700729927</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1662,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>127</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1670,13 +1655,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="C24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1688,19 +1673,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K24">
-        <v>0.0572289156626506</v>
+        <v>0.03765060240963856</v>
       </c>
       <c r="L24">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M24">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1712,45 +1697,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>626</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25">
-        <v>0.3214285714285715</v>
-      </c>
-      <c r="C25">
-        <v>9</v>
-      </c>
-      <c r="D25">
-        <v>9</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>19</v>
-      </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K25">
-        <v>0.05194805194805195</v>
+        <v>0.02995391705069124</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1762,109 +1723,33 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>584</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26">
-        <v>0.2051282051282051</v>
-      </c>
-      <c r="C26">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>16</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>62</v>
-      </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K26">
-        <v>0.04629629629629629</v>
+        <v>0.0141025641025641</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="M26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="N26">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q26">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27">
-        <v>0.02534562211981567</v>
-      </c>
-      <c r="L27">
-        <v>44</v>
-      </c>
-      <c r="M27">
-        <v>44</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K28">
-        <v>0.0204865556978233</v>
-      </c>
-      <c r="L28">
-        <v>16</v>
-      </c>
-      <c r="M28">
-        <v>16</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>765</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
